--- a/database/sidis/expdata/1017affinity01.xlsx
+++ b/database/sidis/expdata/1017affinity01.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="25">
   <si>
     <t>Ebeam</t>
   </si>
@@ -77,6 +77,18 @@
   </si>
   <si>
     <t>affinity</t>
+  </si>
+  <si>
+    <t>hermes</t>
+  </si>
+  <si>
+    <t>k-</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>deuteron</t>
   </si>
 </sst>
 </file>
@@ -434,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U1"/>
+  <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -505,6 +517,591 @@
         <v>20</v>
       </c>
     </row>
+    <row r="2" spans="1:21">
+      <c r="A2">
+        <v>27.6</v>
+      </c>
+      <c r="B2">
+        <v>0.2827765314860415</v>
+      </c>
+      <c r="C2">
+        <v>5.223411</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2">
+        <v>273</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2">
+        <v>0.09244227000000001</v>
+      </c>
+      <c r="I2">
+        <v>0.0004041098</v>
+      </c>
+      <c r="J2">
+        <v>8.700417999999999e-05</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2">
+        <v>0.0006099766</v>
+      </c>
+      <c r="N2">
+        <v>0.2530129</v>
+      </c>
+      <c r="O2">
+        <v>0.35</v>
+      </c>
+      <c r="P2">
+        <v>0.2</v>
+      </c>
+      <c r="Q2">
+        <v>0.398605879964235</v>
+      </c>
+      <c r="R2">
+        <v>0.8336234</v>
+      </c>
+      <c r="S2">
+        <v>1.1</v>
+      </c>
+      <c r="T2">
+        <v>0.8</v>
+      </c>
+      <c r="U2">
+        <v>0.3264999999999804</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3">
+        <v>27.6</v>
+      </c>
+      <c r="B3">
+        <v>0.2829113624329738</v>
+      </c>
+      <c r="C3">
+        <v>5.21369</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3">
+        <v>274</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3">
+        <v>0.1579526</v>
+      </c>
+      <c r="I3">
+        <v>0.00354096</v>
+      </c>
+      <c r="J3">
+        <v>9.228383e-05</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3">
+        <v>0.0006469916</v>
+      </c>
+      <c r="N3">
+        <v>0.2528613</v>
+      </c>
+      <c r="O3">
+        <v>0.35</v>
+      </c>
+      <c r="P3">
+        <v>0.2</v>
+      </c>
+      <c r="Q3">
+        <v>0.39810259139432</v>
+      </c>
+      <c r="R3">
+        <v>0.9443461</v>
+      </c>
+      <c r="S3">
+        <v>1.1</v>
+      </c>
+      <c r="T3">
+        <v>0.8</v>
+      </c>
+      <c r="U3">
+        <v>0.4812999999999633</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4">
+        <v>27.6</v>
+      </c>
+      <c r="B4">
+        <v>0.2827662265361547</v>
+      </c>
+      <c r="C4">
+        <v>5.224152</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4">
+        <v>275</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4">
+        <v>0.3055176</v>
+      </c>
+      <c r="I4">
+        <v>0.0009596187</v>
+      </c>
+      <c r="J4">
+        <v>0.0002152602</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4">
+        <v>0.001635245</v>
+      </c>
+      <c r="N4">
+        <v>0.2530245</v>
+      </c>
+      <c r="O4">
+        <v>0.35</v>
+      </c>
+      <c r="P4">
+        <v>0.2</v>
+      </c>
+      <c r="Q4">
+        <v>0.398644149898513</v>
+      </c>
+      <c r="R4">
+        <v>0.8829091</v>
+      </c>
+      <c r="S4">
+        <v>1.1</v>
+      </c>
+      <c r="T4">
+        <v>0.8</v>
+      </c>
+      <c r="U4">
+        <v>0.42029999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5">
+        <v>27.6</v>
+      </c>
+      <c r="B5">
+        <v>0.2827805192337606</v>
+      </c>
+      <c r="C5">
+        <v>5.220033</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5">
+        <v>276</v>
+      </c>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5">
+        <v>0.4022051</v>
+      </c>
+      <c r="I5">
+        <v>0.001328351</v>
+      </c>
+      <c r="J5">
+        <v>0.0002609716</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5">
+        <v>0.001982497</v>
+      </c>
+      <c r="N5">
+        <v>0.2530312</v>
+      </c>
+      <c r="O5">
+        <v>0.35</v>
+      </c>
+      <c r="P5">
+        <v>0.2</v>
+      </c>
+      <c r="Q5">
+        <v>0.39831929023908</v>
+      </c>
+      <c r="R5">
+        <v>0.8449293</v>
+      </c>
+      <c r="S5">
+        <v>1.1</v>
+      </c>
+      <c r="T5">
+        <v>0.8</v>
+      </c>
+      <c r="U5">
+        <v>0.3460999999999782</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6">
+        <v>27.6</v>
+      </c>
+      <c r="B6">
+        <v>0.1609055192014492</v>
+      </c>
+      <c r="C6">
+        <v>9.214643000000001</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6">
+        <v>322</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6">
+        <v>0.1432143</v>
+      </c>
+      <c r="I6">
+        <v>0.01411169</v>
+      </c>
+      <c r="J6">
+        <v>0.002156582</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6">
+        <v>0.01653329</v>
+      </c>
+      <c r="N6">
+        <v>0.4093928</v>
+      </c>
+      <c r="O6">
+        <v>0.6</v>
+      </c>
+      <c r="P6">
+        <v>0.35</v>
+      </c>
+      <c r="Q6">
+        <v>0.434580744613353</v>
+      </c>
+      <c r="R6">
+        <v>0.6527513</v>
+      </c>
+      <c r="S6">
+        <v>0.8</v>
+      </c>
+      <c r="T6">
+        <v>0.6</v>
+      </c>
+      <c r="U6">
+        <v>0.4156999999999705</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7">
+        <v>27.6</v>
+      </c>
+      <c r="B7">
+        <v>0.1611797995937198</v>
+      </c>
+      <c r="C7">
+        <v>9.202431000000001</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7">
+        <v>323</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7">
+        <v>0.1929529</v>
+      </c>
+      <c r="I7">
+        <v>0.01128133</v>
+      </c>
+      <c r="J7">
+        <v>0.002053058</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7">
+        <v>0.01569006</v>
+      </c>
+      <c r="N7">
+        <v>0.4090416</v>
+      </c>
+      <c r="O7">
+        <v>0.6</v>
+      </c>
+      <c r="P7">
+        <v>0.35</v>
+      </c>
+      <c r="Q7">
+        <v>0.434377435814235</v>
+      </c>
+      <c r="R7">
+        <v>0.6703663</v>
+      </c>
+      <c r="S7">
+        <v>0.8</v>
+      </c>
+      <c r="T7">
+        <v>0.6</v>
+      </c>
+      <c r="U7">
+        <v>0.4648999999999651</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8">
+        <v>27.6</v>
+      </c>
+      <c r="B8">
+        <v>0.1609055192014492</v>
+      </c>
+      <c r="C8">
+        <v>9.214643000000001</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8">
+        <v>324</v>
+      </c>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8">
+        <v>0.2971498</v>
+      </c>
+      <c r="I8">
+        <v>0.01484248</v>
+      </c>
+      <c r="J8">
+        <v>0.001309819</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M8">
+        <v>0.01001002</v>
+      </c>
+      <c r="N8">
+        <v>0.4093928</v>
+      </c>
+      <c r="O8">
+        <v>0.6</v>
+      </c>
+      <c r="P8">
+        <v>0.35</v>
+      </c>
+      <c r="Q8">
+        <v>0.434580744613353</v>
+      </c>
+      <c r="R8">
+        <v>0.6942446</v>
+      </c>
+      <c r="S8">
+        <v>0.8</v>
+      </c>
+      <c r="T8">
+        <v>0.6</v>
+      </c>
+      <c r="U8">
+        <v>0.4949999999999618</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9">
+        <v>27.6</v>
+      </c>
+      <c r="B9">
+        <v>0.1613463970868401</v>
+      </c>
+      <c r="C9">
+        <v>9.199082000000001</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9">
+        <v>325</v>
+      </c>
+      <c r="G9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9">
+        <v>0.3961769</v>
+      </c>
+      <c r="I9">
+        <v>0.01672235</v>
+      </c>
+      <c r="J9">
+        <v>0.002281965</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9">
+        <v>0.01750243</v>
+      </c>
+      <c r="N9">
+        <v>0.4088124</v>
+      </c>
+      <c r="O9">
+        <v>0.6</v>
+      </c>
+      <c r="P9">
+        <v>0.35</v>
+      </c>
+      <c r="Q9">
+        <v>0.434462799123229</v>
+      </c>
+      <c r="R9">
+        <v>0.6717596</v>
+      </c>
+      <c r="S9">
+        <v>0.8</v>
+      </c>
+      <c r="T9">
+        <v>0.6</v>
+      </c>
+      <c r="U9">
+        <v>0.4336999999999686</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10">
+        <v>27.6</v>
+      </c>
+      <c r="B10">
+        <v>0.1611528017969758</v>
+      </c>
+      <c r="C10">
+        <v>9.205912</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10">
+        <v>326</v>
+      </c>
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10">
+        <v>0.5644723</v>
+      </c>
+      <c r="I10">
+        <v>0.009404640000000001</v>
+      </c>
+      <c r="J10">
+        <v>0.001854592</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10" t="s">
+        <v>24</v>
+      </c>
+      <c r="M10">
+        <v>0.01417461</v>
+      </c>
+      <c r="N10">
+        <v>0.4090672</v>
+      </c>
+      <c r="O10">
+        <v>0.6</v>
+      </c>
+      <c r="P10">
+        <v>0.35</v>
+      </c>
+      <c r="Q10">
+        <v>0.434514553365188</v>
+      </c>
+      <c r="R10">
+        <v>0.6763517</v>
+      </c>
+      <c r="S10">
+        <v>0.8</v>
+      </c>
+      <c r="T10">
+        <v>0.6</v>
+      </c>
+      <c r="U10">
+        <v>0.3143999999999817</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
